--- a/tools/relation.xlsx
+++ b/tools/relation.xlsx
@@ -982,7 +982,14 @@
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
-    <t xml:space="preserve">帕特里克·T·派崔克</t>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="12.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">帕特里克·T·海恩斯</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -1955,17 +1962,6 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">帕特里克·T·派崔克</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
       <t xml:space="preserve">友人</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -5483,6 +5479,17 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">克洛斯贝尔市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">曾经的支配者</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -14419,14 +14426,14 @@
       <c r="A15" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>303</v>
-      </c>
       <c r="D15" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -14452,8 +14459,8 @@
       <c r="Z15" s="37"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="40" t="s">
-        <v>302</v>
+      <c r="A16" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>300</v>
@@ -14492,13 +14499,13 @@
         <v>270</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="D17" s="36" t="s">
         <v>305</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>306</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
@@ -14525,13 +14532,13 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="C18" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>309</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>276</v>
@@ -14561,13 +14568,13 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>310</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>311</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>281</v>
@@ -14597,13 +14604,13 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>312</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>313</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>281</v>
@@ -14633,13 +14640,13 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>314</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>315</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>281</v>
@@ -14669,13 +14676,13 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>316</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>317</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>281</v>
@@ -14705,16 +14712,16 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>319</v>
-      </c>
       <c r="D23" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
@@ -14741,16 +14748,16 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -14777,16 +14784,16 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>322</v>
-      </c>
       <c r="D25" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -14813,16 +14820,16 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -14849,7 +14856,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>300</v>
@@ -14885,13 +14892,13 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="36" t="s">
         <v>325</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>326</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>281</v>
@@ -14921,13 +14928,13 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>327</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>328</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>278</v>
@@ -14957,16 +14964,16 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>330</v>
-      </c>
       <c r="D30" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
@@ -14993,7 +15000,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>300</v>
@@ -15029,16 +15036,16 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
@@ -15065,7 +15072,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>300</v>
@@ -15101,16 +15108,16 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
@@ -15137,13 +15144,13 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>284</v>
@@ -15173,16 +15180,16 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>334</v>
-      </c>
       <c r="D36" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
@@ -15209,16 +15216,16 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="D37" s="36" t="s">
         <v>336</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>337</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -15245,13 +15252,13 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>281</v>
@@ -15281,7 +15288,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>300</v>
@@ -15317,16 +15324,16 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
@@ -15353,16 +15360,16 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="D41" s="36" t="s">
         <v>302</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>303</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -15389,13 +15396,13 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>341</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>342</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>281</v>
@@ -15425,13 +15432,13 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>343</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>344</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>284</v>
@@ -15461,7 +15468,7 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>300</v>
@@ -15497,16 +15504,16 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -15533,10 +15540,10 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="36" t="s">
         <v>345</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>346</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>272</v>
@@ -15569,16 +15576,16 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="D47" s="36" t="s">
         <v>348</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>349</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -15605,16 +15612,16 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>351</v>
-      </c>
       <c r="D48" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
@@ -15641,7 +15648,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>300</v>
@@ -15677,16 +15684,16 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
@@ -15713,13 +15720,13 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="36" t="s">
-        <v>353</v>
-      </c>
       <c r="C51" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>276</v>
@@ -15749,16 +15756,16 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="C52" s="36" t="s">
-        <v>355</v>
-      </c>
       <c r="D52" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -15785,13 +15792,13 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B53" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" s="36" t="s">
         <v>356</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>357</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>273</v>
@@ -15821,7 +15828,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>300</v>
@@ -15857,16 +15864,16 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>359</v>
-      </c>
       <c r="D55" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
@@ -15893,13 +15900,13 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>281</v>
@@ -15929,13 +15936,13 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" s="36" t="s">
         <v>361</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>281</v>
@@ -15965,13 +15972,13 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58" s="36" t="s">
         <v>363</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>364</v>
       </c>
       <c r="D58" s="36" t="s">
         <v>281</v>
@@ -16001,13 +16008,13 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>281</v>
@@ -16037,7 +16044,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>300</v>
@@ -16073,16 +16080,16 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
@@ -16109,13 +16116,13 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>367</v>
-      </c>
       <c r="C62" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>281</v>
@@ -16145,13 +16152,13 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>276</v>
@@ -16181,16 +16188,16 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B64" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>370</v>
-      </c>
       <c r="D64" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -16217,16 +16224,16 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="C65" s="36" t="s">
-        <v>372</v>
-      </c>
       <c r="D65" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
@@ -16253,7 +16260,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>300</v>
@@ -16289,16 +16296,16 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
@@ -16325,13 +16332,13 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="B68" s="36" t="s">
-        <v>374</v>
-      </c>
       <c r="C68" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D68" s="36" t="s">
         <v>281</v>
@@ -16361,13 +16368,13 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B69" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" s="36" t="s">
         <v>375</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>376</v>
       </c>
       <c r="D69" s="36" t="s">
         <v>276</v>
@@ -16397,13 +16404,13 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D70" s="36" t="s">
         <v>276</v>
@@ -16433,16 +16440,16 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B71" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C71" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>379</v>
-      </c>
       <c r="D71" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -16469,16 +16476,16 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="C72" s="36" t="s">
-        <v>381</v>
-      </c>
       <c r="D72" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -16505,16 +16512,16 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B73" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="C73" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="C73" s="36" t="s">
-        <v>384</v>
-      </c>
       <c r="D73" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
@@ -16541,16 +16548,16 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
@@ -16577,16 +16584,16 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
@@ -16613,16 +16620,16 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
@@ -16649,10 +16656,10 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>286</v>
@@ -16685,16 +16692,16 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
@@ -16721,16 +16728,16 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B79" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="C79" s="36" t="s">
-        <v>390</v>
-      </c>
       <c r="D79" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
@@ -16757,13 +16764,13 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B80" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>391</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>392</v>
       </c>
       <c r="D80" s="36" t="s">
         <v>276</v>
@@ -16793,16 +16800,16 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
@@ -16829,13 +16836,13 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B82" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>276</v>
@@ -16865,10 +16872,10 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>275</v>
@@ -16901,13 +16908,13 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>276</v>
@@ -16937,16 +16944,16 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="B85" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" s="36" t="s">
+      <c r="D85" s="36" t="s">
         <v>395</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>396</v>
       </c>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
@@ -16973,16 +16980,16 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B86" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C86" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="C86" s="36" t="s">
-        <v>398</v>
-      </c>
       <c r="D86" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
@@ -17009,13 +17016,13 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B87" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="36" t="s">
         <v>399</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>400</v>
       </c>
       <c r="D87" s="36" t="s">
         <v>276</v>
@@ -17045,7 +17052,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" s="36" t="s">
         <v>277</v>
@@ -17054,7 +17061,7 @@
         <v>283</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
@@ -17081,16 +17088,16 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B89" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C89" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>402</v>
-      </c>
       <c r="D89" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
@@ -17117,16 +17124,16 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B90" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -17153,16 +17160,16 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D91" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
@@ -17189,16 +17196,16 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
@@ -17225,16 +17232,16 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B93" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
@@ -17261,16 +17268,16 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B94" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="C94" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="C94" s="36" t="s">
-        <v>407</v>
-      </c>
       <c r="D94" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
@@ -17297,16 +17304,16 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -17333,16 +17340,16 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
@@ -17369,16 +17376,16 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B97" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C97" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>410</v>
-      </c>
       <c r="D97" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
@@ -17405,16 +17412,16 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
@@ -17441,13 +17448,13 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D99" s="36" t="s">
         <v>281</v>
@@ -17477,16 +17484,16 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B100" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C100" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="C100" s="36" t="s">
-        <v>414</v>
-      </c>
       <c r="D100" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
@@ -17513,16 +17520,16 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B101" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
@@ -17549,16 +17556,16 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B102" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
@@ -17585,13 +17592,13 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B103" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="B103" s="36" t="s">
-        <v>416</v>
-      </c>
       <c r="C103" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D103" s="36" t="s">
         <v>281</v>
@@ -17621,16 +17628,16 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B104" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="C104" s="36" t="s">
-        <v>418</v>
-      </c>
       <c r="D104" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E104" s="36"/>
       <c r="F104" s="36"/>
@@ -17657,16 +17664,16 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B105" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C105" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C105" s="36" t="s">
-        <v>420</v>
-      </c>
       <c r="D105" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E105" s="36"/>
       <c r="F105" s="36"/>
@@ -17693,16 +17700,16 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B106" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E106" s="36"/>
       <c r="F106" s="36"/>
@@ -17729,16 +17736,16 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
@@ -17765,13 +17772,13 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D108" s="36" t="s">
         <v>276</v>
@@ -17801,13 +17808,13 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D109" s="36" t="s">
         <v>281</v>
@@ -17837,16 +17844,16 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
@@ -17873,16 +17880,16 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B111" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C111" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>423</v>
-      </c>
       <c r="D111" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E111" s="36"/>
       <c r="F111" s="36"/>
@@ -17909,16 +17916,16 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B112" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="C112" s="36" t="s">
-        <v>425</v>
-      </c>
       <c r="D112" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E112" s="36"/>
       <c r="F112" s="36"/>
@@ -17945,16 +17952,16 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B113" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="C113" s="36" t="s">
-        <v>381</v>
-      </c>
       <c r="D113" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E113" s="36"/>
       <c r="F113" s="36"/>
@@ -17981,16 +17988,16 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B114" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E114" s="36"/>
       <c r="F114" s="36"/>
@@ -18017,16 +18024,16 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B115" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
@@ -18053,16 +18060,16 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="C116" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="C116" s="36" t="s">
-        <v>428</v>
-      </c>
       <c r="D116" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
@@ -18089,13 +18096,13 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="36" t="s">
         <v>276</v>
@@ -18125,16 +18132,16 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B118" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="C118" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="C118" s="36" t="s">
-        <v>431</v>
-      </c>
       <c r="D118" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E118" s="36"/>
       <c r="F118" s="36"/>
@@ -18161,13 +18168,13 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B119" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C119" s="36" t="s">
         <v>432</v>
-      </c>
-      <c r="C119" s="36" t="s">
-        <v>433</v>
       </c>
       <c r="D119" s="36" t="s">
         <v>281</v>
@@ -18197,13 +18204,13 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C120" s="36" t="s">
         <v>434</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>435</v>
       </c>
       <c r="D120" s="36" t="s">
         <v>281</v>
@@ -18233,16 +18240,16 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B121" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
@@ -18269,16 +18276,16 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B122" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C122" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E122" s="36"/>
       <c r="F122" s="36"/>
@@ -18305,13 +18312,13 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="36" t="s">
         <v>436</v>
-      </c>
-      <c r="B123" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>437</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>278</v>
@@ -18341,16 +18348,16 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E124" s="36"/>
       <c r="F124" s="36"/>
@@ -18377,13 +18384,13 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B125" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="C125" s="36" t="s">
         <v>439</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>440</v>
       </c>
       <c r="D125" s="36" t="s">
         <v>276</v>
@@ -18413,13 +18420,13 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>278</v>
@@ -18449,13 +18456,13 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D127" s="36" t="s">
         <v>281</v>
@@ -18485,16 +18492,16 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B128" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C128" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="C128" s="36" t="s">
-        <v>444</v>
-      </c>
       <c r="D128" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
@@ -18521,16 +18528,16 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E129" s="36"/>
       <c r="F129" s="36"/>
@@ -18560,10 +18567,10 @@
         <v>282</v>
       </c>
       <c r="B130" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" s="36" t="s">
         <v>446</v>
-      </c>
-      <c r="C130" s="36" t="s">
-        <v>447</v>
       </c>
       <c r="D130" s="36" t="s">
         <v>276</v>
@@ -18632,10 +18639,10 @@
         <v>282</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D132" s="36" t="s">
         <v>276</v>
@@ -18668,13 +18675,13 @@
         <v>282</v>
       </c>
       <c r="B133" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="C133" s="36" t="s">
-        <v>450</v>
-      </c>
       <c r="D133" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E133" s="36"/>
       <c r="F133" s="36"/>
@@ -18704,13 +18711,13 @@
         <v>282</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C134" s="36" t="s">
         <v>283</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E134" s="36"/>
       <c r="F134" s="36"/>
@@ -18740,13 +18747,13 @@
         <v>282</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E135" s="36"/>
       <c r="F135" s="36"/>
@@ -18776,10 +18783,10 @@
         <v>282</v>
       </c>
       <c r="B136" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="C136" s="36" t="s">
         <v>452</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>453</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>281</v>
@@ -18815,10 +18822,10 @@
         <v>271</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
@@ -18848,13 +18855,13 @@
         <v>282</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
@@ -18881,7 +18888,7 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B139" s="36" t="s">
         <v>274</v>
@@ -18917,16 +18924,16 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
@@ -18953,16 +18960,16 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E141" s="36"/>
       <c r="F141" s="36"/>
@@ -18989,16 +18996,16 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E142" s="36"/>
       <c r="F142" s="36"/>
@@ -19025,16 +19032,16 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B143" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E143" s="36"/>
       <c r="F143" s="36"/>
@@ -19061,13 +19068,13 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B144" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D144" s="36" t="s">
         <v>276</v>
@@ -19097,7 +19104,7 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B145" s="36" t="s">
         <v>277</v>
@@ -19133,13 +19140,13 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B146" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D146" s="36" t="s">
         <v>276</v>
@@ -19169,13 +19176,13 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B147" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D147" s="36" t="s">
         <v>278</v>
@@ -19205,13 +19212,13 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>278</v>
@@ -19241,13 +19248,13 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B149" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D149" s="36" t="s">
         <v>278</v>
@@ -19277,16 +19284,16 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B150" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="C150" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="C150" s="36" t="s">
-        <v>462</v>
-      </c>
       <c r="D150" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
@@ -19313,16 +19320,16 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B151" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E151" s="36"/>
       <c r="F151" s="36"/>
@@ -19349,16 +19356,16 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D152" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="36"/>
@@ -19385,13 +19392,13 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D153" s="36" t="s">
         <v>281</v>
@@ -19421,13 +19428,13 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D154" s="36" t="s">
         <v>276</v>
@@ -19457,16 +19464,16 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="36"/>
@@ -19493,13 +19500,13 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D156" s="36" t="s">
         <v>276</v>
@@ -19529,13 +19536,13 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D157" s="36" t="s">
         <v>281</v>
@@ -19565,16 +19572,16 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B158" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="C158" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="C158" s="36" t="s">
-        <v>471</v>
-      </c>
       <c r="D158" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="36"/>
@@ -19601,16 +19608,16 @@
     </row>
     <row r="159" spans="1:26">
       <c r="A159" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B159" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="C159" s="36" t="s">
-        <v>473</v>
-      </c>
       <c r="D159" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="36"/>
@@ -19637,16 +19644,16 @@
     </row>
     <row r="160" spans="1:26">
       <c r="A160" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B160" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D160" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E160" s="36"/>
       <c r="F160" s="36"/>
@@ -19673,16 +19680,16 @@
     </row>
     <row r="161" spans="1:26">
       <c r="A161" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B161" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="C161" s="36" t="s">
-        <v>475</v>
-      </c>
       <c r="D161" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E161" s="36"/>
       <c r="F161" s="36"/>
@@ -19709,16 +19716,16 @@
     </row>
     <row r="162" spans="1:26">
       <c r="A162" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B162" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D162" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E162" s="36"/>
       <c r="F162" s="36"/>
@@ -19745,16 +19752,16 @@
     </row>
     <row r="163" spans="1:26">
       <c r="A163" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B163" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D163" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E163" s="36"/>
       <c r="F163" s="36"/>
@@ -19781,10 +19788,10 @@
     </row>
     <row r="164" spans="1:26">
       <c r="A164" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C164" s="36" t="s">
         <v>278</v>
@@ -19817,16 +19824,16 @@
     </row>
     <row r="165" spans="1:26">
       <c r="A165" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B165" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E165" s="36"/>
       <c r="F165" s="36"/>
@@ -19853,13 +19860,13 @@
     </row>
     <row r="166" spans="1:26">
       <c r="A166" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B166" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D166" s="36" t="s">
         <v>281</v>
@@ -19889,16 +19896,16 @@
     </row>
     <row r="167" spans="1:26">
       <c r="A167" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B167" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D167" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E167" s="36"/>
       <c r="F167" s="36"/>
@@ -19925,16 +19932,16 @@
     </row>
     <row r="168" spans="1:26">
       <c r="A168" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B168" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D168" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E168" s="36"/>
       <c r="F168" s="36"/>
@@ -19961,13 +19968,13 @@
     </row>
     <row r="169" spans="1:26">
       <c r="A169" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="B169" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="B169" s="36" t="s">
-        <v>446</v>
-      </c>
       <c r="C169" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D169" s="36" t="s">
         <v>276</v>
@@ -19997,16 +20004,16 @@
     </row>
     <row r="170" spans="1:26">
       <c r="A170" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B170" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D170" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E170" s="36"/>
       <c r="F170" s="36"/>
@@ -20033,13 +20040,13 @@
     </row>
     <row r="171" spans="1:26">
       <c r="A171" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B171" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D171" s="36" t="s">
         <v>281</v>
@@ -20069,13 +20076,13 @@
     </row>
     <row r="172" spans="1:26">
       <c r="A172" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D172" s="36" t="s">
         <v>281</v>
@@ -20105,16 +20112,16 @@
     </row>
     <row r="173" spans="1:26">
       <c r="A173" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B173" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D173" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E173" s="36"/>
       <c r="F173" s="36"/>
@@ -20141,16 +20148,16 @@
     </row>
     <row r="174" spans="1:26">
       <c r="A174" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B174" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D174" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E174" s="36"/>
       <c r="F174" s="36"/>
@@ -20177,13 +20184,13 @@
     </row>
     <row r="175" spans="1:26">
       <c r="A175" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D175" s="36" t="s">
         <v>276</v>
@@ -20213,16 +20220,16 @@
     </row>
     <row r="176" spans="1:26">
       <c r="A176" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B176" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D176" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E176" s="36"/>
       <c r="F176" s="36"/>
@@ -20249,16 +20256,16 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B177" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C177" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D177" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E177" s="36"/>
       <c r="F177" s="36"/>
@@ -20285,16 +20292,16 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B178" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D178" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E178" s="36"/>
       <c r="F178" s="36"/>
@@ -20321,16 +20328,16 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B179" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D179" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E179" s="36"/>
       <c r="F179" s="36"/>
@@ -20357,16 +20364,16 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B180" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C180" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D180" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E180" s="36"/>
       <c r="F180" s="36"/>
@@ -20393,16 +20400,16 @@
     </row>
     <row r="181" spans="1:26">
       <c r="A181" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D181" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E181" s="36"/>
       <c r="F181" s="36"/>
@@ -20429,13 +20436,13 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B182" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="C182" s="36" t="s">
         <v>491</v>
-      </c>
-      <c r="C182" s="36" t="s">
-        <v>492</v>
       </c>
       <c r="D182" s="36" t="s">
         <v>278</v>
@@ -20465,16 +20472,16 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D183" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E183" s="36"/>
       <c r="F183" s="36"/>
@@ -20501,16 +20508,16 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C184" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D184" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E184" s="36"/>
       <c r="F184" s="36"/>
@@ -20537,16 +20544,16 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B185" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C185" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D185" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E185" s="36"/>
       <c r="F185" s="36"/>
@@ -20573,7 +20580,7 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B186" s="36" t="s">
         <v>300</v>
@@ -20609,16 +20616,16 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B187" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C187" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D187" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E187" s="36"/>
       <c r="F187" s="36"/>
@@ -20645,16 +20652,16 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B188" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C188" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D188" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E188" s="36"/>
       <c r="F188" s="36"/>
@@ -20681,16 +20688,16 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="B189" s="36" t="s">
-        <v>386</v>
-      </c>
       <c r="C189" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D189" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E189" s="36"/>
       <c r="F189" s="36"/>
@@ -20717,16 +20724,16 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B190" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C190" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D190" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E190" s="36"/>
       <c r="F190" s="36"/>
@@ -20753,16 +20760,16 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B191" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="C191" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="C191" s="36" t="s">
-        <v>499</v>
-      </c>
       <c r="D191" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E191" s="36"/>
       <c r="F191" s="36"/>
@@ -20789,13 +20796,13 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B192" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C192" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D192" s="36" t="s">
         <v>284</v>
@@ -20825,13 +20832,13 @@
     </row>
     <row r="193" spans="1:26">
       <c r="A193" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C193" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D193" s="36" t="s">
         <v>278</v>
@@ -20861,13 +20868,13 @@
     </row>
     <row r="194" spans="1:26">
       <c r="A194" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B194" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C194" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D194" s="36" t="s">
         <v>276</v>
@@ -20897,16 +20904,16 @@
     </row>
     <row r="195" spans="1:26">
       <c r="A195" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B195" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C195" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D195" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E195" s="36"/>
       <c r="F195" s="36"/>
@@ -20933,16 +20940,16 @@
     </row>
     <row r="196" spans="1:26">
       <c r="A196" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B196" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C196" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D196" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E196" s="36"/>
       <c r="F196" s="36"/>
@@ -20969,16 +20976,16 @@
     </row>
     <row r="197" spans="1:26">
       <c r="A197" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B197" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="C197" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="C197" s="36" t="s">
-        <v>505</v>
-      </c>
       <c r="D197" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E197" s="36"/>
       <c r="F197" s="36"/>
@@ -21005,13 +21012,13 @@
     </row>
     <row r="198" spans="1:26">
       <c r="A198" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B198" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="C198" s="36" t="s">
         <v>506</v>
-      </c>
-      <c r="C198" s="36" t="s">
-        <v>507</v>
       </c>
       <c r="D198" s="36" t="s">
         <v>276</v>
@@ -21041,10 +21048,10 @@
     </row>
     <row r="199" spans="1:26">
       <c r="A199" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B199" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C199" s="36" t="s">
         <v>284</v>
@@ -21077,16 +21084,16 @@
     </row>
     <row r="200" spans="1:26">
       <c r="A200" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B200" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="C200" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="C200" s="36" t="s">
-        <v>510</v>
-      </c>
       <c r="D200" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E200" s="36"/>
       <c r="F200" s="36"/>
@@ -21113,16 +21120,16 @@
     </row>
     <row r="201" spans="1:26">
       <c r="A201" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B201" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C201" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D201" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E201" s="36"/>
       <c r="F201" s="36"/>
@@ -21149,13 +21156,13 @@
     </row>
     <row r="202" spans="1:26">
       <c r="A202" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B202" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C202" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D202" s="36"/>
       <c r="E202" s="36"/>
@@ -21183,13 +21190,13 @@
     </row>
     <row r="203" spans="1:26">
       <c r="A203" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C203" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D203" s="36"/>
       <c r="E203" s="36"/>
@@ -21217,10 +21224,10 @@
     </row>
     <row r="204" spans="1:26">
       <c r="A204" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="B204" s="36" t="s">
         <v>360</v>
-      </c>
-      <c r="B204" s="36" t="s">
-        <v>361</v>
       </c>
       <c r="C204" s="36" t="s">
         <v>278</v>
@@ -21253,13 +21260,13 @@
     </row>
     <row r="205" spans="1:26">
       <c r="A205" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B205" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C205" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D205" s="36" t="s">
         <v>278</v>
@@ -21289,13 +21296,13 @@
     </row>
     <row r="206" spans="1:26">
       <c r="A206" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B206" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="C206" s="36" t="s">
         <v>513</v>
-      </c>
-      <c r="C206" s="36" t="s">
-        <v>514</v>
       </c>
       <c r="D206" s="36" t="s">
         <v>276</v>
@@ -21325,10 +21332,10 @@
     </row>
     <row r="207" spans="1:26">
       <c r="A207" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B207" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C207" s="36" t="s">
         <v>284</v>
@@ -21361,10 +21368,10 @@
     </row>
     <row r="208" spans="1:26">
       <c r="A208" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B208" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C208" s="36" t="s">
         <v>284</v>
@@ -21397,16 +21404,16 @@
     </row>
     <row r="209" spans="1:26">
       <c r="A209" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B209" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C209" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E209" s="36"/>
       <c r="F209" s="36"/>
@@ -21433,13 +21440,13 @@
     </row>
     <row r="210" spans="1:26">
       <c r="A210" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C210" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D210" s="36" t="s">
         <v>276</v>
@@ -21469,16 +21476,16 @@
     </row>
     <row r="211" spans="1:26">
       <c r="A211" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B211" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E211" s="36"/>
       <c r="F211" s="36"/>
@@ -21505,13 +21512,13 @@
     </row>
     <row r="212" spans="1:26">
       <c r="A212" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C212" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D212" s="36" t="s">
         <v>276</v>
@@ -21541,16 +21548,16 @@
     </row>
     <row r="213" spans="1:26">
       <c r="A213" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B213" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C213" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="C213" s="36" t="s">
-        <v>519</v>
-      </c>
       <c r="D213" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E213" s="36"/>
       <c r="F213" s="36"/>
@@ -21577,13 +21584,13 @@
     </row>
     <row r="214" spans="1:26">
       <c r="A214" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C214" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D214" s="36" t="s">
         <v>276</v>
@@ -21613,13 +21620,13 @@
     </row>
     <row r="215" spans="1:26">
       <c r="A215" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B215" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C215" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D215" s="36" t="s">
         <v>284</v>
@@ -21649,13 +21656,13 @@
     </row>
     <row r="216" spans="1:26">
       <c r="A216" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B216" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C216" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D216" s="36" t="s">
         <v>284</v>
@@ -21685,13 +21692,13 @@
     </row>
     <row r="217" spans="1:26">
       <c r="A217" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B217" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C217" s="36" t="s">
         <v>523</v>
-      </c>
-      <c r="C217" s="36" t="s">
-        <v>524</v>
       </c>
       <c r="D217" s="36" t="s">
         <v>284</v>
@@ -21721,16 +21728,16 @@
     </row>
     <row r="218" spans="1:26">
       <c r="A218" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B218" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C218" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D218" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E218" s="36"/>
       <c r="F218" s="36"/>
@@ -21757,16 +21764,16 @@
     </row>
     <row r="219" spans="1:26">
       <c r="A219" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B219" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C219" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D219" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E219" s="36"/>
       <c r="F219" s="36"/>
@@ -21793,16 +21800,16 @@
     </row>
     <row r="220" spans="1:26">
       <c r="A220" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B220" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C220" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D220" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E220" s="36"/>
       <c r="F220" s="36"/>
@@ -21829,16 +21836,16 @@
     </row>
     <row r="221" spans="1:26">
       <c r="A221" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B221" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="C221" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="C221" s="36" t="s">
-        <v>528</v>
-      </c>
       <c r="D221" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E221" s="36"/>
       <c r="F221" s="36"/>
@@ -21865,16 +21872,16 @@
     </row>
     <row r="222" spans="1:26">
       <c r="A222" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B222" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="C222" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="C222" s="36" t="s">
-        <v>530</v>
-      </c>
       <c r="D222" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E222" s="36"/>
       <c r="F222" s="36"/>
@@ -21901,16 +21908,16 @@
     </row>
     <row r="223" spans="1:26">
       <c r="A223" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B223" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C223" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D223" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E223" s="36"/>
       <c r="F223" s="36"/>
@@ -21937,16 +21944,16 @@
     </row>
     <row r="224" spans="1:26">
       <c r="A224" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="B224" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="B224" s="36" t="s">
+      <c r="C224" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="C224" s="36" t="s">
-        <v>534</v>
-      </c>
       <c r="D224" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E224" s="36"/>
       <c r="F224" s="36"/>
@@ -21973,16 +21980,16 @@
     </row>
     <row r="225" spans="1:26">
       <c r="A225" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C225" s="36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D225" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E225" s="36"/>
       <c r="F225" s="36"/>
@@ -22009,16 +22016,16 @@
     </row>
     <row r="226" spans="1:26">
       <c r="A226" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B226" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C226" s="36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D226" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E226" s="36"/>
       <c r="F226" s="36"/>
@@ -22045,16 +22052,16 @@
     </row>
     <row r="227" spans="1:26">
       <c r="A227" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C227" s="36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D227" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E227" s="36"/>
       <c r="F227" s="36"/>
@@ -22081,16 +22088,16 @@
     </row>
     <row r="228" spans="1:26">
       <c r="A228" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B228" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C228" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D228" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E228" s="36"/>
       <c r="F228" s="36"/>
@@ -22117,16 +22124,16 @@
     </row>
     <row r="229" spans="1:26">
       <c r="A229" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C229" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D229" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E229" s="36"/>
       <c r="F229" s="36"/>
@@ -22153,13 +22160,13 @@
     </row>
     <row r="230" spans="1:26">
       <c r="A230" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C230" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D230" s="36" t="s">
         <v>276</v>
@@ -22189,13 +22196,13 @@
     </row>
     <row r="231" spans="1:26">
       <c r="A231" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B231" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C231" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D231" s="36" t="s">
         <v>281</v>
@@ -22225,13 +22232,13 @@
     </row>
     <row r="232" spans="1:26">
       <c r="A232" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B232" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C232" s="36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D232" s="36" t="s">
         <v>281</v>
@@ -22261,13 +22268,13 @@
     </row>
     <row r="233" spans="1:26">
       <c r="A233" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B233" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C233" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D233" s="36" t="s">
         <v>276</v>
@@ -22297,16 +22304,16 @@
     </row>
     <row r="234" spans="1:26">
       <c r="A234" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B234" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C234" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D234" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E234" s="36"/>
       <c r="F234" s="36"/>
@@ -22333,16 +22340,16 @@
     </row>
     <row r="235" spans="1:26">
       <c r="A235" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B235" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C235" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D235" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E235" s="36"/>
       <c r="F235" s="36"/>
@@ -22369,16 +22376,16 @@
     </row>
     <row r="236" spans="1:26">
       <c r="A236" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B236" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="C236" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="C236" s="36" t="s">
-        <v>540</v>
-      </c>
       <c r="D236" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E236" s="36"/>
       <c r="F236" s="36"/>
@@ -22405,16 +22412,16 @@
     </row>
     <row r="237" spans="1:26">
       <c r="A237" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B237" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C237" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D237" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E237" s="36"/>
       <c r="F237" s="36"/>
@@ -22441,16 +22448,16 @@
     </row>
     <row r="238" spans="1:26">
       <c r="A238" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B238" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C238" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D238" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E238" s="36"/>
       <c r="F238" s="36"/>
@@ -22477,16 +22484,16 @@
     </row>
     <row r="239" spans="1:26">
       <c r="A239" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B239" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C239" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D239" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E239" s="36"/>
       <c r="F239" s="36"/>
@@ -22513,16 +22520,16 @@
     </row>
     <row r="240" spans="1:26">
       <c r="A240" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B240" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C240" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D240" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E240" s="36"/>
       <c r="F240" s="36"/>
@@ -22549,16 +22556,16 @@
     </row>
     <row r="241" spans="1:26">
       <c r="A241" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B241" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C241" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="C241" s="36" t="s">
-        <v>542</v>
-      </c>
       <c r="D241" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E241" s="36"/>
       <c r="F241" s="36"/>
@@ -22585,16 +22592,16 @@
     </row>
     <row r="242" spans="1:26">
       <c r="A242" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B242" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C242" s="36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D242" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E242" s="36"/>
       <c r="F242" s="36"/>
@@ -22621,16 +22628,16 @@
     </row>
     <row r="243" spans="1:26">
       <c r="A243" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B243" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C243" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D243" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E243" s="36"/>
       <c r="F243" s="36"/>
@@ -22657,16 +22664,16 @@
     </row>
     <row r="244" spans="1:26">
       <c r="A244" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B244" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="C244" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="C244" s="36" t="s">
-        <v>545</v>
-      </c>
       <c r="D244" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E244" s="36"/>
       <c r="F244" s="36"/>
@@ -22693,16 +22700,16 @@
     </row>
     <row r="245" spans="1:26">
       <c r="A245" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B245" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C245" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D245" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E245" s="36"/>
       <c r="F245" s="36"/>
@@ -22729,16 +22736,16 @@
     </row>
     <row r="246" spans="1:26">
       <c r="A246" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B246" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C246" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D246" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E246" s="36"/>
       <c r="F246" s="36"/>
@@ -22765,16 +22772,16 @@
     </row>
     <row r="247" spans="1:26">
       <c r="A247" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B247" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C247" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D247" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E247" s="36"/>
       <c r="F247" s="36"/>
@@ -22801,13 +22808,13 @@
     </row>
     <row r="248" spans="1:26">
       <c r="A248" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B248" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C248" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D248" s="36" t="s">
         <v>276</v>
@@ -22837,16 +22844,16 @@
     </row>
     <row r="249" spans="1:26">
       <c r="A249" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B249" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C249" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D249" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E249" s="36"/>
       <c r="F249" s="36"/>
@@ -22873,16 +22880,16 @@
     </row>
     <row r="250" spans="1:26">
       <c r="A250" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B250" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C250" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D250" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E250" s="36"/>
       <c r="F250" s="36"/>
@@ -22909,16 +22916,16 @@
     </row>
     <row r="251" spans="1:26">
       <c r="A251" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C251" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D251" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E251" s="36"/>
       <c r="F251" s="36"/>
@@ -22945,13 +22952,13 @@
     </row>
     <row r="252" spans="1:26">
       <c r="A252" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B252" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C252" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D252" s="36" t="s">
         <v>276</v>
@@ -22981,16 +22988,16 @@
     </row>
     <row r="253" spans="1:26">
       <c r="A253" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B253" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C253" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D253" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E253" s="36"/>
       <c r="F253" s="36"/>
@@ -23017,16 +23024,16 @@
     </row>
     <row r="254" spans="1:26">
       <c r="A254" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B254" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C254" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D254" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E254" s="36"/>
       <c r="F254" s="36"/>
@@ -23053,16 +23060,16 @@
     </row>
     <row r="255" spans="1:26">
       <c r="A255" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B255" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C255" s="36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D255" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E255" s="36"/>
       <c r="F255" s="36"/>
@@ -23089,16 +23096,16 @@
     </row>
     <row r="256" spans="1:26">
       <c r="A256" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B256" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="C256" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="C256" s="36" t="s">
-        <v>550</v>
-      </c>
       <c r="D256" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E256" s="36"/>
       <c r="F256" s="36"/>
@@ -23125,16 +23132,16 @@
     </row>
     <row r="257" spans="1:26">
       <c r="A257" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B257" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="C257" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="C257" s="36" t="s">
-        <v>552</v>
-      </c>
       <c r="D257" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E257" s="36"/>
       <c r="F257" s="36"/>
@@ -23161,16 +23168,16 @@
     </row>
     <row r="258" spans="1:26">
       <c r="A258" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B258" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C258" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D258" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E258" s="36"/>
       <c r="F258" s="36"/>
@@ -23197,16 +23204,16 @@
     </row>
     <row r="259" spans="1:26">
       <c r="A259" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B259" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C259" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D259" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E259" s="36"/>
       <c r="F259" s="36"/>
@@ -23233,13 +23240,13 @@
     </row>
     <row r="260" spans="1:26">
       <c r="A260" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B260" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C260" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D260" s="36" t="s">
         <v>281</v>
@@ -23269,16 +23276,16 @@
     </row>
     <row r="261" spans="1:26">
       <c r="A261" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B261" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="C261" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="C261" s="36" t="s">
-        <v>555</v>
-      </c>
       <c r="D261" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E261" s="36"/>
       <c r="F261" s="36"/>
@@ -23305,16 +23312,16 @@
     </row>
     <row r="262" spans="1:26">
       <c r="A262" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B262" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D262" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E262" s="36"/>
       <c r="F262" s="36"/>
@@ -23341,16 +23348,16 @@
     </row>
     <row r="263" spans="1:26">
       <c r="A263" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B263" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C263" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D263" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E263" s="36"/>
       <c r="F263" s="36"/>
@@ -23377,13 +23384,13 @@
     </row>
     <row r="264" spans="1:26">
       <c r="A264" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B264" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C264" s="36" t="s">
         <v>557</v>
-      </c>
-      <c r="C264" s="36" t="s">
-        <v>558</v>
       </c>
       <c r="D264" s="36" t="s">
         <v>281</v>
@@ -23413,16 +23420,16 @@
     </row>
     <row r="265" spans="1:26">
       <c r="A265" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B265" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C265" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D265" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E265" s="36"/>
       <c r="F265" s="36"/>
@@ -23449,16 +23456,16 @@
     </row>
     <row r="266" spans="1:26">
       <c r="A266" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B266" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D266" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E266" s="36"/>
       <c r="F266" s="36"/>
@@ -23485,16 +23492,16 @@
     </row>
     <row r="267" spans="1:26">
       <c r="A267" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B267" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C267" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D267" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E267" s="36"/>
       <c r="F267" s="36"/>
@@ -23521,13 +23528,13 @@
     </row>
     <row r="268" spans="1:26">
       <c r="A268" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="B268" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="C268" s="36" t="s">
         <v>559</v>
-      </c>
-      <c r="B268" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="C268" s="36" t="s">
-        <v>560</v>
       </c>
       <c r="D268" s="36" t="s">
         <v>281</v>
@@ -23557,13 +23564,13 @@
     </row>
     <row r="269" spans="1:26">
       <c r="A269" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B269" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C269" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D269" s="36" t="s">
         <v>276</v>
@@ -23593,16 +23600,16 @@
     </row>
     <row r="270" spans="1:26">
       <c r="A270" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B270" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C270" s="36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D270" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E270" s="36"/>
       <c r="F270" s="36"/>
@@ -23629,13 +23636,13 @@
     </row>
     <row r="271" spans="1:26">
       <c r="A271" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B271" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="C271" s="36" t="s">
         <v>562</v>
-      </c>
-      <c r="C271" s="36" t="s">
-        <v>563</v>
       </c>
       <c r="D271" s="36" t="s">
         <v>281</v>
@@ -23665,16 +23672,16 @@
     </row>
     <row r="272" spans="1:26">
       <c r="A272" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B272" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="C272" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="C272" s="36" t="s">
-        <v>565</v>
-      </c>
       <c r="D272" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E272" s="36"/>
       <c r="F272" s="36"/>
@@ -23701,16 +23708,16 @@
     </row>
     <row r="273" spans="1:26">
       <c r="A273" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B273" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C273" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E273" s="36"/>
       <c r="F273" s="36"/>
@@ -23737,16 +23744,16 @@
     </row>
     <row r="274" spans="1:26">
       <c r="A274" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B274" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C274" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E274" s="36"/>
       <c r="F274" s="36"/>
@@ -23773,16 +23780,16 @@
     </row>
     <row r="275" spans="1:26">
       <c r="A275" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B275" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="C275" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C275" s="36" t="s">
-        <v>569</v>
-      </c>
       <c r="D275" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E275" s="36"/>
       <c r="F275" s="36"/>
@@ -23809,16 +23816,16 @@
     </row>
     <row r="276" spans="1:26">
       <c r="A276" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B276" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C276" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D276" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E276" s="36"/>
       <c r="F276" s="36"/>
@@ -23845,16 +23852,16 @@
     </row>
     <row r="277" spans="1:26">
       <c r="A277" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B277" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C277" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D277" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E277" s="36"/>
       <c r="F277" s="36"/>
@@ -23881,7 +23888,7 @@
     </row>
     <row r="278" spans="1:26">
       <c r="A278" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B278" s="36" t="s">
         <v>282</v>
@@ -23890,7 +23897,7 @@
         <v>284</v>
       </c>
       <c r="D278" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E278" s="36"/>
       <c r="F278" s="36"/>
@@ -23917,16 +23924,16 @@
     </row>
     <row r="279" spans="1:26">
       <c r="A279" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B279" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C279" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D279" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E279" s="36"/>
       <c r="F279" s="36"/>
@@ -23953,13 +23960,13 @@
     </row>
     <row r="280" spans="1:26">
       <c r="A280" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B280" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C280" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D280" s="36" t="s">
         <v>276</v>
@@ -23989,13 +23996,13 @@
     </row>
     <row r="281" spans="1:26">
       <c r="A281" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B281" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C281" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D281" s="36" t="s">
         <v>281</v>
@@ -24025,16 +24032,16 @@
     </row>
     <row r="282" spans="1:26">
       <c r="A282" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B282" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C282" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D282" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E282" s="36"/>
       <c r="F282" s="36"/>
@@ -24061,13 +24068,13 @@
     </row>
     <row r="283" spans="1:26">
       <c r="A283" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B283" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C283" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D283" s="36" t="s">
         <v>281</v>
@@ -24097,13 +24104,13 @@
     </row>
     <row r="284" spans="1:26">
       <c r="A284" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B284" s="36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C284" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D284" s="36" t="s">
         <v>281</v>
@@ -24133,16 +24140,16 @@
     </row>
     <row r="285" spans="1:26">
       <c r="A285" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B285" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C285" s="36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D285" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E285" s="36"/>
       <c r="F285" s="36"/>
@@ -24169,16 +24176,16 @@
     </row>
     <row r="286" spans="1:26">
       <c r="A286" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B286" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C286" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D286" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E286" s="36"/>
       <c r="F286" s="36"/>
@@ -24205,7 +24212,7 @@
     </row>
     <row r="287" spans="1:26">
       <c r="A287" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B287" s="36" t="s">
         <v>282</v>
@@ -24214,7 +24221,7 @@
         <v>284</v>
       </c>
       <c r="D287" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E287" s="36"/>
       <c r="F287" s="36"/>
@@ -24241,16 +24248,16 @@
     </row>
     <row r="288" spans="1:26">
       <c r="A288" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B288" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C288" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D288" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E288" s="36"/>
       <c r="F288" s="36"/>
@@ -24277,16 +24284,16 @@
     </row>
     <row r="289" spans="1:26">
       <c r="A289" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B289" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="C289" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C289" s="36" t="s">
-        <v>577</v>
-      </c>
       <c r="D289" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E289" s="36"/>
       <c r="F289" s="36"/>
@@ -24313,16 +24320,16 @@
     </row>
     <row r="290" spans="1:26">
       <c r="A290" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B290" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C290" s="36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D290" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E290" s="36"/>
       <c r="F290" s="36"/>
@@ -24349,13 +24356,13 @@
     </row>
     <row r="291" spans="1:26">
       <c r="A291" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B291" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C291" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D291" s="36" t="s">
         <v>276</v>
@@ -24385,13 +24392,13 @@
     </row>
     <row r="292" spans="1:26">
       <c r="A292" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B292" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C292" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D292" s="36" t="s">
         <v>281</v>
@@ -24421,16 +24428,16 @@
     </row>
     <row r="293" spans="1:26">
       <c r="A293" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B293" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="C293" s="36" t="s">
         <v>579</v>
       </c>
-      <c r="C293" s="36" t="s">
-        <v>580</v>
-      </c>
       <c r="D293" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E293" s="36"/>
       <c r="F293" s="36"/>
@@ -24457,16 +24464,16 @@
     </row>
     <row r="294" spans="1:26">
       <c r="A294" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B294" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C294" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D294" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E294" s="36"/>
       <c r="F294" s="36"/>
@@ -24493,16 +24500,16 @@
     </row>
     <row r="295" spans="1:26">
       <c r="A295" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B295" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="C295" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="C295" s="36" t="s">
-        <v>582</v>
-      </c>
       <c r="D295" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E295" s="36"/>
       <c r="F295" s="36"/>
@@ -24529,7 +24536,7 @@
     </row>
     <row r="296" spans="1:26">
       <c r="A296" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B296" s="36" t="s">
         <v>274</v>
@@ -24565,16 +24572,16 @@
     </row>
     <row r="297" spans="1:26">
       <c r="A297" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B297" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C297" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D297" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E297" s="36"/>
       <c r="F297" s="36"/>
@@ -24601,16 +24608,16 @@
     </row>
     <row r="298" spans="1:26">
       <c r="A298" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B298" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C298" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D298" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E298" s="36"/>
       <c r="F298" s="36"/>
@@ -24637,7 +24644,7 @@
     </row>
     <row r="299" spans="1:26">
       <c r="A299" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B299" s="36" t="s">
         <v>277</v>
@@ -24673,13 +24680,13 @@
     </row>
     <row r="300" spans="1:26">
       <c r="A300" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B300" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C300" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D300" s="36" t="s">
         <v>276</v>
@@ -24709,13 +24716,13 @@
     </row>
     <row r="301" spans="1:26">
       <c r="A301" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B301" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C301" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D301" s="36" t="s">
         <v>276</v>
@@ -24745,13 +24752,13 @@
     </row>
     <row r="302" spans="1:26">
       <c r="A302" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B302" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C302" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D302" s="36" t="s">
         <v>281</v>
@@ -24781,16 +24788,16 @@
     </row>
     <row r="303" spans="1:26">
       <c r="A303" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B303" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C303" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D303" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E303" s="36"/>
       <c r="F303" s="36"/>
@@ -24817,16 +24824,16 @@
     </row>
     <row r="304" spans="1:26">
       <c r="A304" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B304" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C304" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D304" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E304" s="36"/>
       <c r="F304" s="36"/>
@@ -24853,16 +24860,16 @@
     </row>
     <row r="305" spans="1:26">
       <c r="A305" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B305" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C305" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D305" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E305" s="36"/>
       <c r="F305" s="36"/>
@@ -24889,16 +24896,16 @@
     </row>
     <row r="306" spans="1:26">
       <c r="A306" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B306" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="C306" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C306" s="36" t="s">
-        <v>569</v>
-      </c>
       <c r="D306" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E306" s="36"/>
       <c r="F306" s="36"/>
@@ -24925,16 +24932,16 @@
     </row>
     <row r="307" spans="1:26">
       <c r="A307" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B307" s="36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C307" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D307" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E307" s="36"/>
       <c r="F307" s="36"/>
@@ -24961,16 +24968,16 @@
     </row>
     <row r="308" spans="1:26">
       <c r="A308" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B308" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="C308" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="C308" s="36" t="s">
-        <v>589</v>
-      </c>
       <c r="D308" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E308" s="36"/>
       <c r="F308" s="36"/>
@@ -24997,16 +25004,16 @@
     </row>
     <row r="309" spans="1:26">
       <c r="A309" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B309" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C309" s="36" t="s">
         <v>590</v>
       </c>
-      <c r="C309" s="36" t="s">
-        <v>591</v>
-      </c>
       <c r="D309" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E309" s="36"/>
       <c r="F309" s="36"/>
@@ -25033,16 +25040,16 @@
     </row>
     <row r="310" spans="1:26">
       <c r="A310" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B310" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="C310" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="C310" s="36" t="s">
+      <c r="D310" s="36" t="s">
         <v>593</v>
-      </c>
-      <c r="D310" s="36" t="s">
-        <v>594</v>
       </c>
       <c r="E310" s="36"/>
       <c r="F310" s="36"/>
@@ -25069,7 +25076,7 @@
     </row>
     <row r="311" spans="1:26">
       <c r="A311" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B311" s="36" t="s">
         <v>282</v>
@@ -25078,7 +25085,7 @@
         <v>284</v>
       </c>
       <c r="D311" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E311" s="36"/>
       <c r="F311" s="36"/>
@@ -25105,16 +25112,16 @@
     </row>
     <row r="312" spans="1:26">
       <c r="A312" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B312" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C312" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D312" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E312" s="36"/>
       <c r="F312" s="36"/>
@@ -25141,16 +25148,16 @@
     </row>
     <row r="313" spans="1:26">
       <c r="A313" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="B313" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="C313" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="B313" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="C313" s="36" t="s">
-        <v>596</v>
-      </c>
       <c r="D313" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E313" s="36"/>
       <c r="F313" s="36"/>
@@ -25177,16 +25184,16 @@
     </row>
     <row r="314" spans="1:26">
       <c r="A314" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B314" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="C314" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="C314" s="36" t="s">
-        <v>598</v>
-      </c>
       <c r="D314" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E314" s="36"/>
       <c r="F314" s="36"/>
@@ -25213,16 +25220,16 @@
     </row>
     <row r="315" spans="1:26">
       <c r="A315" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B315" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D315" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E315" s="36"/>
       <c r="F315" s="36"/>
@@ -25249,16 +25256,16 @@
     </row>
     <row r="316" spans="1:26">
       <c r="A316" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B316" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="C316" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="D316" s="36" t="s">
         <v>600</v>
-      </c>
-      <c r="D316" s="36" t="s">
-        <v>601</v>
       </c>
       <c r="E316" s="36"/>
       <c r="F316" s="36"/>
@@ -25285,16 +25292,16 @@
     </row>
     <row r="317" spans="1:26">
       <c r="A317" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B317" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="C317" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="C317" s="36" t="s">
-        <v>603</v>
-      </c>
       <c r="D317" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E317" s="36"/>
       <c r="F317" s="36"/>
@@ -25321,16 +25328,16 @@
     </row>
     <row r="318" spans="1:26">
       <c r="A318" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B318" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C318" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D318" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E318" s="36"/>
       <c r="F318" s="36"/>
@@ -25357,16 +25364,16 @@
     </row>
     <row r="319" spans="1:26">
       <c r="A319" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B319" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D319" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E319" s="36"/>
       <c r="F319" s="36"/>
@@ -25393,16 +25400,16 @@
     </row>
     <row r="320" spans="1:26">
       <c r="A320" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B320" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D320" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E320" s="36"/>
       <c r="F320" s="36"/>
@@ -25429,16 +25436,16 @@
     </row>
     <row r="321" spans="1:26">
       <c r="A321" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B321" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D321" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E321" s="36"/>
       <c r="F321" s="36"/>
@@ -25465,16 +25472,16 @@
     </row>
     <row r="322" spans="1:26">
       <c r="A322" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B322" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C322" s="36" t="s">
         <v>284</v>
       </c>
       <c r="D322" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E322" s="36"/>
       <c r="F322" s="36"/>
@@ -25501,7 +25508,7 @@
     </row>
     <row r="323" spans="1:26">
       <c r="A323" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B323" s="36" t="s">
         <v>277</v>
@@ -25510,7 +25517,7 @@
         <v>284</v>
       </c>
       <c r="D323" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E323" s="36"/>
       <c r="F323" s="36"/>
@@ -25543,10 +25550,10 @@
         <v>279</v>
       </c>
       <c r="C324" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D324" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E324" s="36"/>
       <c r="F324" s="36"/>
@@ -25576,13 +25583,13 @@
         <v>271</v>
       </c>
       <c r="B325" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="C325" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="C325" s="36" t="s">
-        <v>610</v>
-      </c>
       <c r="D325" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E325" s="36"/>
       <c r="F325" s="36"/>
@@ -25615,10 +25622,10 @@
         <v>282</v>
       </c>
       <c r="C326" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D326" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E326" s="36"/>
       <c r="F326" s="36"/>
@@ -25648,13 +25655,13 @@
         <v>271</v>
       </c>
       <c r="B327" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D327" s="36" t="s">
         <v>611</v>
-      </c>
-      <c r="C327" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="D327" s="36" t="s">
-        <v>612</v>
       </c>
       <c r="E327" s="36"/>
       <c r="F327" s="36"/>
@@ -25684,13 +25691,13 @@
         <v>271</v>
       </c>
       <c r="B328" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="C328" s="36" t="s">
         <v>613</v>
       </c>
-      <c r="C328" s="36" t="s">
+      <c r="D328" s="36" t="s">
         <v>614</v>
-      </c>
-      <c r="D328" s="36" t="s">
-        <v>615</v>
       </c>
       <c r="E328" s="36"/>
       <c r="F328" s="36"/>
@@ -25720,13 +25727,13 @@
         <v>271</v>
       </c>
       <c r="B329" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="C329" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="C329" s="36" t="s">
-        <v>617</v>
-      </c>
       <c r="D329" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E329" s="36"/>
       <c r="F329" s="36"/>
@@ -25756,13 +25763,13 @@
         <v>271</v>
       </c>
       <c r="B330" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C330" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D330" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E330" s="36"/>
       <c r="F330" s="36"/>
@@ -25792,13 +25799,13 @@
         <v>271</v>
       </c>
       <c r="B331" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C331" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D331" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E331" s="36"/>
       <c r="F331" s="36"/>
@@ -25828,13 +25835,13 @@
         <v>271</v>
       </c>
       <c r="B332" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C332" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="D332" s="36" t="s">
         <v>619</v>
-      </c>
-      <c r="D332" s="36" t="s">
-        <v>620</v>
       </c>
       <c r="E332" s="36"/>
       <c r="F332" s="36"/>
@@ -25861,16 +25868,16 @@
     </row>
     <row r="333" spans="1:26">
       <c r="A333" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B333" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C333" s="36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D333" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E333" s="36"/>
       <c r="F333" s="36"/>
@@ -25897,13 +25904,13 @@
     </row>
     <row r="334" spans="1:26">
       <c r="A334" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B334" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C334" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D334" s="36" t="s">
         <v>276</v>
@@ -25933,16 +25940,16 @@
     </row>
     <row r="335" spans="1:26">
       <c r="A335" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B335" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C335" s="36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D335" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E335" s="36"/>
       <c r="F335" s="36"/>
@@ -25969,16 +25976,16 @@
     </row>
     <row r="336" spans="1:26">
       <c r="A336" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B336" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C336" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D336" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E336" s="36"/>
       <c r="F336" s="36"/>
@@ -26005,16 +26012,16 @@
     </row>
     <row r="337" spans="1:26">
       <c r="A337" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B337" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C337" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D337" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E337" s="36"/>
       <c r="F337" s="36"/>
@@ -26041,10 +26048,10 @@
     </row>
     <row r="338" spans="1:26">
       <c r="A338" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B338" s="36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C338" s="36" t="s">
         <v>286</v>
@@ -26077,16 +26084,16 @@
     </row>
     <row r="339" spans="1:26">
       <c r="A339" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B339" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="C339" s="36" t="s">
         <v>624</v>
       </c>
-      <c r="C339" s="36" t="s">
-        <v>615</v>
-      </c>
       <c r="D339" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E339" s="36"/>
       <c r="F339" s="36"/>
@@ -26113,16 +26120,16 @@
     </row>
     <row r="340" spans="1:26">
       <c r="A340" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B340" s="36" t="s">
         <v>271</v>
       </c>
       <c r="C340" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D340" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E340" s="36"/>
       <c r="F340" s="36"/>
@@ -26149,13 +26156,13 @@
     </row>
     <row r="341" spans="1:26">
       <c r="A341" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C341" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D341" s="36" t="s">
         <v>276</v>
@@ -26185,16 +26192,16 @@
     </row>
     <row r="342" spans="1:26">
       <c r="A342" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B342" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C342" s="36" t="s">
         <v>625</v>
       </c>
       <c r="D342" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E342" s="36"/>
       <c r="F342" s="36"/>
@@ -26221,7 +26228,7 @@
     </row>
     <row r="343" spans="1:26">
       <c r="A343" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B343" s="36" t="s">
         <v>626</v>
@@ -26257,16 +26264,16 @@
     </row>
     <row r="344" spans="1:26">
       <c r="A344" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B344" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C344" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D344" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E344" s="36"/>
       <c r="F344" s="36"/>
@@ -26293,7 +26300,7 @@
     </row>
     <row r="345" spans="1:26">
       <c r="A345" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B345" s="36" t="s">
         <v>300</v>
@@ -26329,7 +26336,7 @@
     </row>
     <row r="346" spans="1:26">
       <c r="A346" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B346" s="36" t="s">
         <v>274</v>
@@ -26338,7 +26345,7 @@
         <v>629</v>
       </c>
       <c r="D346" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E346" s="36"/>
       <c r="F346" s="36"/>
@@ -26365,16 +26372,16 @@
     </row>
     <row r="347" spans="1:26">
       <c r="A347" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B347" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C347" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D347" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E347" s="36"/>
       <c r="F347" s="36"/>
@@ -26401,16 +26408,16 @@
     </row>
     <row r="348" spans="1:26">
       <c r="A348" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B348" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C348" s="36" t="s">
         <v>630</v>
       </c>
       <c r="D348" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E348" s="36"/>
       <c r="F348" s="36"/>
@@ -26437,7 +26444,7 @@
     </row>
     <row r="349" spans="1:26">
       <c r="A349" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B349" s="36" t="s">
         <v>271</v>
@@ -26446,7 +26453,7 @@
         <v>631</v>
       </c>
       <c r="D349" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E349" s="36"/>
       <c r="F349" s="36"/>
@@ -26473,13 +26480,13 @@
     </row>
     <row r="350" spans="1:26">
       <c r="A350" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B350" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C350" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D350" s="36" t="s">
         <v>276</v>
@@ -26509,16 +26516,16 @@
     </row>
     <row r="351" spans="1:26">
       <c r="A351" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B351" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C351" s="36" t="s">
         <v>625</v>
       </c>
       <c r="D351" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E351" s="36"/>
       <c r="F351" s="36"/>
@@ -26545,16 +26552,16 @@
     </row>
     <row r="352" spans="1:26">
       <c r="A352" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B352" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C352" s="36" t="s">
         <v>625</v>
       </c>
       <c r="D352" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E352" s="36"/>
       <c r="F352" s="36"/>
@@ -26581,7 +26588,7 @@
     </row>
     <row r="353" spans="1:26">
       <c r="A353" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B353" s="36" t="s">
         <v>270</v>
@@ -26590,7 +26597,7 @@
         <v>632</v>
       </c>
       <c r="D353" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E353" s="36"/>
       <c r="F353" s="36"/>
@@ -26617,16 +26624,16 @@
     </row>
     <row r="354" spans="1:26">
       <c r="A354" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B354" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C354" s="36" t="s">
         <v>633</v>
       </c>
       <c r="D354" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E354" s="36"/>
       <c r="F354" s="36"/>
@@ -26653,16 +26660,16 @@
     </row>
     <row r="355" spans="1:26">
       <c r="A355" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B355" s="36" t="s">
         <v>634</v>
       </c>
       <c r="C355" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D355" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E355" s="36"/>
       <c r="F355" s="36"/>
@@ -26689,16 +26696,16 @@
     </row>
     <row r="356" spans="1:26">
       <c r="A356" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B356" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C356" s="36" t="s">
         <v>635</v>
       </c>
       <c r="D356" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E356" s="36"/>
       <c r="F356" s="36"/>
@@ -26725,16 +26732,16 @@
     </row>
     <row r="357" spans="1:26">
       <c r="A357" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B357" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C357" s="36" t="s">
         <v>635</v>
       </c>
       <c r="D357" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E357" s="36"/>
       <c r="F357" s="36"/>
@@ -26761,7 +26768,7 @@
     </row>
     <row r="358" spans="1:26">
       <c r="A358" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B358" s="36" t="s">
         <v>271</v>
@@ -26770,7 +26777,7 @@
         <v>636</v>
       </c>
       <c r="D358" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E358" s="36"/>
       <c r="F358" s="36"/>
@@ -26797,16 +26804,16 @@
     </row>
     <row r="359" spans="1:26">
       <c r="A359" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B359" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C359" s="36" t="s">
         <v>637</v>
       </c>
       <c r="D359" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E359" s="36"/>
       <c r="F359" s="36"/>
@@ -26833,13 +26840,13 @@
     </row>
     <row r="360" spans="1:26">
       <c r="A360" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B360" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C360" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D360" s="36" t="s">
         <v>276</v>
@@ -26869,7 +26876,7 @@
     </row>
     <row r="361" spans="1:26">
       <c r="A361" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B361" s="36" t="s">
         <v>638</v>
@@ -26905,7 +26912,7 @@
     </row>
     <row r="362" spans="1:26">
       <c r="A362" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B362" s="36" t="s">
         <v>270</v>
@@ -26914,7 +26921,7 @@
         <v>639</v>
       </c>
       <c r="D362" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E362" s="36"/>
       <c r="F362" s="36"/>
@@ -26941,16 +26948,16 @@
     </row>
     <row r="363" spans="1:26">
       <c r="A363" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B363" s="36" t="s">
         <v>300</v>
       </c>
       <c r="C363" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D363" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E363" s="36"/>
       <c r="F363" s="36"/>
@@ -26977,7 +26984,7 @@
     </row>
     <row r="364" spans="1:26">
       <c r="A364" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B364" s="36" t="s">
         <v>282</v>
@@ -27013,10 +27020,10 @@
     </row>
     <row r="365" spans="1:26">
       <c r="A365" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B365" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C365" s="36" t="s">
         <v>641</v>
@@ -27049,10 +27056,10 @@
     </row>
     <row r="366" spans="1:26">
       <c r="A366" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B366" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C366" s="36" t="s">
         <v>643</v>
@@ -27085,16 +27092,16 @@
     </row>
     <row r="367" spans="1:26">
       <c r="A367" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B367" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C367" s="36" t="s">
         <v>644</v>
       </c>
       <c r="D367" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E367" s="36"/>
       <c r="F367" s="36"/>
@@ -27121,7 +27128,7 @@
     </row>
     <row r="368" spans="1:26">
       <c r="A368" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B368" s="36" t="s">
         <v>271</v>
@@ -27157,10 +27164,10 @@
     </row>
     <row r="369" spans="1:26">
       <c r="A369" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B369" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C369" s="36" t="s">
         <v>646</v>
@@ -27193,16 +27200,16 @@
     </row>
     <row r="370" spans="1:26">
       <c r="A370" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B370" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C370" s="36" t="s">
         <v>647</v>
       </c>
       <c r="D370" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E370" s="36"/>
       <c r="F370" s="36"/>
@@ -27232,7 +27239,7 @@
         <v>648</v>
       </c>
       <c r="B371" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C371" s="36" t="s">
         <v>649</v>
@@ -27268,13 +27275,13 @@
         <v>648</v>
       </c>
       <c r="B372" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C372" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D372" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E372" s="36"/>
       <c r="F372" s="36"/>
@@ -27304,7 +27311,7 @@
         <v>648</v>
       </c>
       <c r="B373" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C373" s="36" t="s">
         <v>643</v>
@@ -27340,7 +27347,7 @@
         <v>648</v>
       </c>
       <c r="B374" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C374" s="36" t="s">
         <v>650</v>
@@ -27412,13 +27419,13 @@
         <v>648</v>
       </c>
       <c r="B376" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C376" s="36" t="s">
         <v>652</v>
       </c>
       <c r="D376" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E376" s="36"/>
       <c r="F376" s="36"/>
@@ -27448,13 +27455,13 @@
         <v>648</v>
       </c>
       <c r="B377" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C377" s="36" t="s">
         <v>653</v>
       </c>
       <c r="D377" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E377" s="36"/>
       <c r="F377" s="36"/>
@@ -27484,10 +27491,10 @@
         <v>654</v>
       </c>
       <c r="B378" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C378" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D378" s="36" t="s">
         <v>276</v>
@@ -27526,7 +27533,7 @@
         <v>655</v>
       </c>
       <c r="D379" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E379" s="36"/>
       <c r="F379" s="36"/>
@@ -27559,10 +27566,10 @@
         <v>656</v>
       </c>
       <c r="C380" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D380" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E380" s="36"/>
       <c r="F380" s="36"/>
@@ -27592,13 +27599,13 @@
         <v>654</v>
       </c>
       <c r="B381" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C381" s="36" t="s">
         <v>657</v>
       </c>
       <c r="D381" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E381" s="36"/>
       <c r="F381" s="36"/>
@@ -27634,7 +27641,7 @@
         <v>658</v>
       </c>
       <c r="D382" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E382" s="36"/>
       <c r="F382" s="36"/>
@@ -27664,13 +27671,13 @@
         <v>654</v>
       </c>
       <c r="B383" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C383" s="36" t="s">
         <v>652</v>
       </c>
       <c r="D383" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E383" s="36"/>
       <c r="F383" s="36"/>
@@ -27700,7 +27707,7 @@
         <v>654</v>
       </c>
       <c r="B384" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C384" s="36" t="s">
         <v>649</v>
@@ -27736,7 +27743,7 @@
         <v>654</v>
       </c>
       <c r="B385" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C385" s="36" t="s">
         <v>659</v>
@@ -27772,10 +27779,10 @@
         <v>656</v>
       </c>
       <c r="B386" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C386" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D386" s="36" t="s">
         <v>276</v>
@@ -27811,10 +27818,10 @@
         <v>648</v>
       </c>
       <c r="C387" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D387" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E387" s="36"/>
       <c r="F387" s="36"/>
@@ -27847,10 +27854,10 @@
         <v>660</v>
       </c>
       <c r="C388" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D388" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E388" s="36"/>
       <c r="F388" s="36"/>
@@ -27880,13 +27887,13 @@
         <v>656</v>
       </c>
       <c r="B389" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C389" s="36" t="s">
         <v>657</v>
       </c>
       <c r="D389" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E389" s="36"/>
       <c r="F389" s="36"/>
@@ -27922,7 +27929,7 @@
         <v>658</v>
       </c>
       <c r="D390" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E390" s="36"/>
       <c r="F390" s="36"/>
@@ -27952,13 +27959,13 @@
         <v>656</v>
       </c>
       <c r="B391" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C391" s="36" t="s">
         <v>652</v>
       </c>
       <c r="D391" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E391" s="36"/>
       <c r="F391" s="36"/>
@@ -27988,7 +27995,7 @@
         <v>656</v>
       </c>
       <c r="B392" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C392" s="36" t="s">
         <v>649</v>
@@ -28024,7 +28031,7 @@
         <v>656</v>
       </c>
       <c r="B393" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C393" s="36" t="s">
         <v>659</v>
@@ -28060,13 +28067,13 @@
         <v>661</v>
       </c>
       <c r="B394" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C394" s="36" t="s">
         <v>643</v>
       </c>
       <c r="D394" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E394" s="36"/>
       <c r="F394" s="36"/>
@@ -28096,13 +28103,13 @@
         <v>661</v>
       </c>
       <c r="B395" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C395" s="36" t="s">
         <v>662</v>
       </c>
       <c r="D395" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E395" s="36"/>
       <c r="F395" s="36"/>
@@ -28132,13 +28139,13 @@
         <v>661</v>
       </c>
       <c r="B396" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C396" s="36" t="s">
         <v>663</v>
       </c>
       <c r="D396" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E396" s="36"/>
       <c r="F396" s="36"/>
@@ -28168,13 +28175,13 @@
         <v>661</v>
       </c>
       <c r="B397" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C397" s="36" t="s">
         <v>663</v>
       </c>
       <c r="D397" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E397" s="36"/>
       <c r="F397" s="36"/>
@@ -28204,13 +28211,13 @@
         <v>661</v>
       </c>
       <c r="B398" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C398" s="36" t="s">
         <v>664</v>
       </c>
       <c r="D398" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E398" s="36"/>
       <c r="F398" s="36"/>
@@ -28237,13 +28244,13 @@
     </row>
     <row r="399" spans="1:26">
       <c r="A399" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B399" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C399" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D399" s="36" t="s">
         <v>276</v>
@@ -28273,16 +28280,16 @@
     </row>
     <row r="400" spans="1:26">
       <c r="A400" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B400" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C400" s="36" t="s">
         <v>665</v>
       </c>
       <c r="D400" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E400" s="36"/>
       <c r="F400" s="36"/>
@@ -28309,16 +28316,16 @@
     </row>
     <row r="401" spans="1:26">
       <c r="A401" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B401" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C401" s="36" t="s">
         <v>666</v>
       </c>
       <c r="D401" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E401" s="36"/>
       <c r="F401" s="36"/>
@@ -28345,7 +28352,7 @@
     </row>
     <row r="402" spans="1:26">
       <c r="A402" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B402" s="36" t="s">
         <v>667</v>
@@ -28354,7 +28361,7 @@
         <v>643</v>
       </c>
       <c r="D402" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E402" s="36"/>
       <c r="F402" s="36"/>
@@ -28381,7 +28388,7 @@
     </row>
     <row r="403" spans="1:26">
       <c r="A403" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B403" s="36" t="s">
         <v>270</v>
@@ -28390,7 +28397,7 @@
         <v>668</v>
       </c>
       <c r="D403" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E403" s="36"/>
       <c r="F403" s="36"/>
@@ -28417,16 +28424,16 @@
     </row>
     <row r="404" spans="1:26">
       <c r="A404" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B404" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C404" s="36" t="s">
         <v>669</v>
       </c>
       <c r="D404" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E404" s="36"/>
       <c r="F404" s="36"/>
@@ -28453,7 +28460,7 @@
     </row>
     <row r="405" spans="1:26">
       <c r="A405" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B405" s="36" t="s">
         <v>670</v>
@@ -28489,16 +28496,16 @@
     </row>
     <row r="406" spans="1:26">
       <c r="A406" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B406" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C406" s="36" t="s">
         <v>671</v>
       </c>
       <c r="D406" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E406" s="36"/>
       <c r="F406" s="36"/>
@@ -28525,16 +28532,16 @@
     </row>
     <row r="407" spans="1:26">
       <c r="A407" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B407" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C407" s="36" t="s">
         <v>672</v>
       </c>
       <c r="D407" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E407" s="36"/>
       <c r="F407" s="36"/>
@@ -28561,7 +28568,7 @@
     </row>
     <row r="408" spans="1:26">
       <c r="A408" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B408" s="36" t="s">
         <v>271</v>
@@ -28570,7 +28577,7 @@
         <v>673</v>
       </c>
       <c r="D408" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E408" s="36"/>
       <c r="F408" s="36"/>
@@ -28597,13 +28604,13 @@
     </row>
     <row r="409" spans="1:26">
       <c r="A409" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B409" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C409" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D409" s="36" t="s">
         <v>276</v>
@@ -28633,16 +28640,16 @@
     </row>
     <row r="410" spans="1:26">
       <c r="A410" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B410" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C410" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D410" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E410" s="36"/>
       <c r="F410" s="36"/>
@@ -28669,7 +28676,7 @@
     </row>
     <row r="411" spans="1:26">
       <c r="A411" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B411" s="36" t="s">
         <v>674</v>
@@ -28678,7 +28685,7 @@
         <v>675</v>
       </c>
       <c r="D411" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E411" s="36"/>
       <c r="F411" s="36"/>
@@ -28705,10 +28712,10 @@
     </row>
     <row r="412" spans="1:26">
       <c r="A412" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B412" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C412" s="36" t="s">
         <v>284</v>
@@ -28741,7 +28748,7 @@
     </row>
     <row r="413" spans="1:26">
       <c r="A413" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413" s="36" t="s">
         <v>271</v>
@@ -28777,16 +28784,16 @@
     </row>
     <row r="414" spans="1:26">
       <c r="A414" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C414" s="36" t="s">
         <v>676</v>
       </c>
       <c r="D414" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E414" s="36"/>
       <c r="F414" s="36"/>
@@ -28813,16 +28820,16 @@
     </row>
     <row r="415" spans="1:26">
       <c r="A415" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B415" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C415" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D415" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E415" s="36"/>
       <c r="F415" s="36"/>
@@ -28849,16 +28856,16 @@
     </row>
     <row r="416" spans="1:26">
       <c r="A416" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B416" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C416" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D416" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E416" s="36"/>
       <c r="F416" s="36"/>
@@ -28885,10 +28892,10 @@
     </row>
     <row r="417" spans="1:26">
       <c r="A417" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B417" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C417" s="36" t="s">
         <v>677</v>
@@ -28921,16 +28928,16 @@
     </row>
     <row r="418" spans="1:26">
       <c r="A418" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B418" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C418" s="36" t="s">
         <v>678</v>
       </c>
       <c r="D418" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E418" s="36"/>
       <c r="F418" s="36"/>
@@ -28957,16 +28964,16 @@
     </row>
     <row r="419" spans="1:26">
       <c r="A419" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B419" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C419" s="36" t="s">
         <v>678</v>
       </c>
       <c r="D419" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E419" s="36"/>
       <c r="F419" s="36"/>
@@ -28993,16 +29000,16 @@
     </row>
     <row r="420" spans="1:26">
       <c r="A420" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B420" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C420" s="36" t="s">
         <v>679</v>
       </c>
       <c r="D420" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E420" s="36"/>
       <c r="F420" s="36"/>
@@ -29029,16 +29036,16 @@
     </row>
     <row r="421" spans="1:26">
       <c r="A421" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B421" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C421" s="36" t="s">
         <v>678</v>
       </c>
       <c r="D421" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E421" s="36"/>
       <c r="F421" s="36"/>
@@ -29065,7 +29072,7 @@
     </row>
     <row r="422" spans="1:26">
       <c r="A422" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B422" s="36" t="s">
         <v>271</v>
@@ -29101,16 +29108,16 @@
     </row>
     <row r="423" spans="1:26">
       <c r="A423" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B423" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C423" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D423" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E423" s="36"/>
       <c r="F423" s="36"/>
@@ -29137,16 +29144,16 @@
     </row>
     <row r="424" spans="1:26">
       <c r="A424" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B424" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C424" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D424" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E424" s="36"/>
       <c r="F424" s="36"/>
@@ -29173,16 +29180,16 @@
     </row>
     <row r="425" spans="1:26">
       <c r="A425" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B425" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C425" s="36" t="s">
         <v>680</v>
       </c>
       <c r="D425" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E425" s="36"/>
       <c r="F425" s="36"/>
@@ -29209,7 +29216,7 @@
     </row>
     <row r="426" spans="1:26">
       <c r="A426" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B426" s="36" t="s">
         <v>270</v>
@@ -29218,7 +29225,7 @@
         <v>678</v>
       </c>
       <c r="D426" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E426" s="36"/>
       <c r="F426" s="36"/>
@@ -29245,16 +29252,16 @@
     </row>
     <row r="427" spans="1:26">
       <c r="A427" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B427" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C427" s="36" t="s">
         <v>678</v>
       </c>
       <c r="D427" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E427" s="36"/>
       <c r="F427" s="36"/>
@@ -29281,13 +29288,13 @@
     </row>
     <row r="428" spans="1:26">
       <c r="A428" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B428" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C428" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D428" s="36" t="s">
         <v>276</v>
@@ -29317,16 +29324,16 @@
     </row>
     <row r="429" spans="1:26">
       <c r="A429" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B429" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C429" s="36" t="s">
         <v>681</v>
       </c>
       <c r="D429" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E429" s="36"/>
       <c r="F429" s="36"/>
@@ -29353,16 +29360,16 @@
     </row>
     <row r="430" spans="1:26">
       <c r="A430" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B430" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C430" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D430" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E430" s="36"/>
       <c r="F430" s="36"/>
@@ -29389,16 +29396,16 @@
     </row>
     <row r="431" spans="1:26">
       <c r="A431" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B431" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C431" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D431" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E431" s="36"/>
       <c r="F431" s="36"/>
@@ -29425,16 +29432,16 @@
     </row>
     <row r="432" spans="1:26">
       <c r="A432" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B432" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C432" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D432" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E432" s="36"/>
       <c r="F432" s="36"/>
@@ -29461,10 +29468,10 @@
     </row>
     <row r="433" spans="1:26">
       <c r="A433" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B433" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C433" s="36" t="s">
         <v>682</v>
@@ -29497,16 +29504,16 @@
     </row>
     <row r="434" spans="1:26">
       <c r="A434" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B434" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C434" s="36" t="s">
         <v>683</v>
       </c>
       <c r="D434" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E434" s="36"/>
       <c r="F434" s="36"/>
@@ -29533,13 +29540,13 @@
     </row>
     <row r="435" spans="1:26">
       <c r="A435" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B435" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C435" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D435" s="36" t="s">
         <v>276</v>
@@ -29569,13 +29576,13 @@
     </row>
     <row r="436" spans="1:26">
       <c r="A436" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B436" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C436" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D436" s="36" t="s">
         <v>276</v>
@@ -29605,16 +29612,16 @@
     </row>
     <row r="437" spans="1:26">
       <c r="A437" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B437" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C437" s="36" t="s">
         <v>684</v>
       </c>
       <c r="D437" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E437" s="36"/>
       <c r="F437" s="36"/>
@@ -29641,7 +29648,7 @@
     </row>
     <row r="438" spans="1:26">
       <c r="A438" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B438" s="36" t="s">
         <v>685</v>
@@ -29650,7 +29657,7 @@
         <v>686</v>
       </c>
       <c r="D438" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E438" s="36"/>
       <c r="F438" s="36"/>
@@ -29677,7 +29684,7 @@
     </row>
     <row r="439" spans="1:26">
       <c r="A439" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B439" s="36" t="s">
         <v>294</v>
@@ -29686,7 +29693,7 @@
         <v>687</v>
       </c>
       <c r="D439" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E439" s="36"/>
       <c r="F439" s="36"/>
@@ -29713,16 +29720,16 @@
     </row>
     <row r="440" spans="1:26">
       <c r="A440" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B440" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C440" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D440" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E440" s="36"/>
       <c r="F440" s="36"/>
@@ -29749,16 +29756,16 @@
     </row>
     <row r="441" spans="1:26">
       <c r="A441" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B441" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C441" s="36" t="s">
         <v>688</v>
       </c>
       <c r="D441" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E441" s="36"/>
       <c r="F441" s="36"/>
@@ -29785,16 +29792,16 @@
     </row>
     <row r="442" spans="1:26">
       <c r="A442" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B442" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C442" s="36" t="s">
         <v>689</v>
       </c>
       <c r="D442" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E442" s="36"/>
       <c r="F442" s="36"/>
@@ -29821,16 +29828,16 @@
     </row>
     <row r="443" spans="1:26">
       <c r="A443" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B443" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C443" s="36" t="s">
         <v>690</v>
       </c>
       <c r="D443" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E443" s="36"/>
       <c r="F443" s="36"/>
@@ -29857,16 +29864,16 @@
     </row>
     <row r="444" spans="1:26">
       <c r="A444" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B444" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C444" s="36" t="s">
         <v>690</v>
       </c>
       <c r="D444" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E444" s="36"/>
       <c r="F444" s="36"/>
@@ -29896,10 +29903,10 @@
         <v>685</v>
       </c>
       <c r="B445" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C445" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D445" s="36" t="s">
         <v>276</v>
@@ -29938,7 +29945,7 @@
         <v>692</v>
       </c>
       <c r="D446" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E446" s="36"/>
       <c r="F446" s="36"/>
@@ -29968,13 +29975,13 @@
         <v>685</v>
       </c>
       <c r="B447" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C447" s="36" t="s">
         <v>692</v>
       </c>
       <c r="D447" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E447" s="36"/>
       <c r="F447" s="36"/>
@@ -30004,13 +30011,13 @@
         <v>685</v>
       </c>
       <c r="B448" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C448" s="36" t="s">
         <v>692</v>
       </c>
       <c r="D448" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E448" s="36"/>
       <c r="F448" s="36"/>
@@ -30046,7 +30053,7 @@
         <v>693</v>
       </c>
       <c r="D449" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E449" s="36"/>
       <c r="F449" s="36"/>
@@ -30076,13 +30083,13 @@
         <v>685</v>
       </c>
       <c r="B450" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C450" s="36" t="s">
         <v>694</v>
       </c>
       <c r="D450" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E450" s="36"/>
       <c r="F450" s="36"/>
@@ -30118,7 +30125,7 @@
         <v>695</v>
       </c>
       <c r="D451" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E451" s="36"/>
       <c r="F451" s="36"/>
@@ -30148,13 +30155,13 @@
         <v>685</v>
       </c>
       <c r="B452" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C452" s="36" t="s">
         <v>696</v>
       </c>
       <c r="D452" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E452" s="36"/>
       <c r="F452" s="36"/>
@@ -30181,13 +30188,13 @@
     </row>
     <row r="453" spans="1:26">
       <c r="A453" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B453" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C453" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D453" s="36" t="s">
         <v>276</v>
@@ -30217,16 +30224,16 @@
     </row>
     <row r="454" spans="1:26">
       <c r="A454" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B454" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C454" s="36" t="s">
         <v>697</v>
       </c>
       <c r="D454" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E454" s="36"/>
       <c r="F454" s="36"/>
@@ -30253,7 +30260,7 @@
     </row>
     <row r="455" spans="1:26">
       <c r="A455" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B455" s="36" t="s">
         <v>698</v>
@@ -30262,7 +30269,7 @@
         <v>699</v>
       </c>
       <c r="D455" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E455" s="36"/>
       <c r="F455" s="36"/>
@@ -30289,7 +30296,7 @@
     </row>
     <row r="456" spans="1:26">
       <c r="A456" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B456" s="36" t="s">
         <v>700</v>
@@ -30298,7 +30305,7 @@
         <v>699</v>
       </c>
       <c r="D456" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E456" s="36"/>
       <c r="F456" s="36"/>
@@ -30325,10 +30332,10 @@
     </row>
     <row r="457" spans="1:26">
       <c r="A457" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B457" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C457" s="36" t="s">
         <v>701</v>
@@ -30361,16 +30368,16 @@
     </row>
     <row r="458" spans="1:26">
       <c r="A458" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B458" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C458" s="36" t="s">
         <v>703</v>
       </c>
       <c r="D458" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E458" s="36"/>
       <c r="F458" s="36"/>
@@ -30397,7 +30404,7 @@
     </row>
     <row r="459" spans="1:26">
       <c r="A459" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B459" s="36" t="s">
         <v>292</v>
@@ -30406,7 +30413,7 @@
         <v>704</v>
       </c>
       <c r="D459" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E459" s="36"/>
       <c r="F459" s="36"/>
@@ -30433,16 +30440,16 @@
     </row>
     <row r="460" spans="1:26">
       <c r="A460" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B460" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C460" s="36" t="s">
         <v>705</v>
       </c>
       <c r="D460" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E460" s="36"/>
       <c r="F460" s="36"/>
@@ -30469,7 +30476,7 @@
     </row>
     <row r="461" spans="1:26">
       <c r="A461" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B461" s="36" t="s">
         <v>270</v>
@@ -30505,10 +30512,10 @@
     </row>
     <row r="462" spans="1:26">
       <c r="A462" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B462" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C462" s="36" t="s">
         <v>687</v>
@@ -30541,7 +30548,7 @@
     </row>
     <row r="463" spans="1:26">
       <c r="A463" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B463" s="36" t="s">
         <v>685</v>
@@ -30550,7 +30557,7 @@
         <v>707</v>
       </c>
       <c r="D463" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E463" s="36"/>
       <c r="F463" s="36"/>
@@ -30577,16 +30584,16 @@
     </row>
     <row r="464" spans="1:26">
       <c r="A464" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B464" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C464" s="36" t="s">
         <v>707</v>
       </c>
       <c r="D464" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E464" s="36"/>
       <c r="F464" s="36"/>
@@ -30613,16 +30620,16 @@
     </row>
     <row r="465" spans="1:26">
       <c r="A465" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B465" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C465" s="36" t="s">
         <v>707</v>
       </c>
       <c r="D465" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E465" s="36"/>
       <c r="F465" s="36"/>

--- a/tools/relation.xlsx
+++ b/tools/relation.xlsx
@@ -1315,7 +1315,7 @@
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
-    <t xml:space="preserve">帕赛尔·马蒂尔</t>
+    <t xml:space="preserve">帕蒂尔·玛蒂尔</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -4731,18 +4731,18 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">给与帕赛尔·马蒂尔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">帕赛尔·马蒂尔</t>
+      <t xml:space="preserve">给与帕蒂尔·玛蒂尔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">帕蒂尔·玛蒂尔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>

--- a/tools/relation.xlsx
+++ b/tools/relation.xlsx
@@ -137,7 +137,7 @@
         <sz val="12.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">劳拉·亚尔赛德</t>
+      <t xml:space="preserve">劳拉·S·亚尔赛德</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -2270,7 +2270,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">劳拉·亚尔赛德</t>
+      <t xml:space="preserve">劳拉·S·亚尔赛德</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>

--- a/tools/relation.xlsx
+++ b/tools/relation.xlsx
@@ -1076,7 +1076,14 @@
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
-    <t xml:space="preserve">沃雷斯·拜尔迪安斯</t>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="12.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">渥雷斯·拜尔迪安斯</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
   <si>
@@ -2681,7 +2688,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">沃雷斯·拜尔迪安斯</t>
+      <t xml:space="preserve">渥雷斯·拜尔迪安斯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>

--- a/tools/relation.xlsx
+++ b/tools/relation.xlsx
@@ -7498,7 +7498,7 @@
     <col min="1" max="1" width="24.096385542168672" customWidth="true"/>
     <col min="2" max="2" width="79.7590361445783" customWidth="true"/>
     <col min="3" max="3" width="41.084337349397586" customWidth="true"/>
-    <col min="4" max="4" width="40.361445783132524" customWidth="true"/>
+    <col min="4" max="4" width="59.39759036144578" customWidth="true"/>
     <col min="5" max="5" width="12.89156626506024" customWidth="true"/>
     <col min="6" max="6" width="12.89156626506024" customWidth="true"/>
     <col min="7" max="7" width="12.89156626506024" customWidth="true"/>
@@ -21722,7 +21722,9 @@
       <c r="C205" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="D205" s="39"/>
+      <c r="D205" s="39" t="s">
+        <v>310</v>
+      </c>
       <c r="E205" s="39"/>
       <c r="F205" s="39"/>
       <c r="G205" s="47"/>
@@ -21756,7 +21758,9 @@
       <c r="C206" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="D206" s="39"/>
+      <c r="D206" s="39" t="s">
+        <v>310</v>
+      </c>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
       <c r="G206" s="47"/>

--- a/tools/relation.xlsx
+++ b/tools/relation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunta\Desktop\Labs\relation-graph-3d-force\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302F1F9-32DC-4E7A-8EA9-26AF481F34BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F656E87-5D0E-4834-9168-C214A535F1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="741">
   <si>
     <t>八叶一刀流</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5769,24 +5769,6 @@
   </si>
   <si>
     <t>https://trails-game.com/wp-content/uploads/2020/09/Leonhardt-300x300.jpeg</t>
-  </si>
-  <si>
-    <t>凯恩公爵(前任)</t>
-  </si>
-  <si>
-    <t>https://trails-game.com/wp-content/uploads/2020/12/icon_315.png</t>
-  </si>
-  <si>
-    <t>埃雷波尼亚帝国</t>
-  </si>
-  <si>
-    <t>艾尔巴雷亚家族</t>
-  </si>
-  <si>
-    <t>海恩斯家族</t>
-  </si>
-  <si>
-    <t>莱恩福尔特家族</t>
   </si>
 </sst>
 </file>
@@ -6342,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75"/>
@@ -12299,18 +12281,10 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171" spans="1:26" ht="16.149999999999999">
-      <c r="A171" s="31" t="s">
-        <v>741</v>
-      </c>
-      <c r="B171" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="C171" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="D171" s="34">
-        <v>10126</v>
-      </c>
+      <c r="A171" s="31"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="33"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -12335,16 +12309,10 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172" spans="1:26" ht="16.149999999999999">
-      <c r="A172" s="33" t="s">
-        <v>743</v>
-      </c>
+      <c r="A172" s="33"/>
       <c r="B172" s="33"/>
-      <c r="C172" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="D172" s="34">
-        <v>8241</v>
-      </c>
+      <c r="C172" s="33"/>
+      <c r="D172" s="34"/>
       <c r="E172" s="33"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -12369,13 +12337,9 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173" spans="1:26" ht="16.149999999999999">
-      <c r="A173" s="31" t="s">
-        <v>744</v>
-      </c>
+      <c r="A173" s="31"/>
       <c r="B173" s="33"/>
-      <c r="C173" s="33" t="s">
-        <v>594</v>
-      </c>
+      <c r="C173" s="33"/>
       <c r="D173" s="33"/>
       <c r="E173" s="33"/>
       <c r="F173" s="2"/>
@@ -12401,13 +12365,9 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174" spans="1:26" ht="16.149999999999999">
-      <c r="A174" s="31" t="s">
-        <v>745</v>
-      </c>
+      <c r="A174" s="31"/>
       <c r="B174" s="33"/>
-      <c r="C174" s="33" t="s">
-        <v>594</v>
-      </c>
+      <c r="C174" s="33"/>
       <c r="D174" s="33"/>
       <c r="E174" s="33"/>
       <c r="F174" s="2"/>
@@ -12433,13 +12393,9 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175" spans="1:26" ht="16.149999999999999">
-      <c r="A175" s="33" t="s">
-        <v>746</v>
-      </c>
+      <c r="A175" s="33"/>
       <c r="B175" s="33"/>
-      <c r="C175" s="33" t="s">
-        <v>594</v>
-      </c>
+      <c r="C175" s="33"/>
       <c r="D175" s="33"/>
       <c r="E175" s="33"/>
       <c r="F175" s="2"/>
@@ -13203,43 +13159,42 @@
     <hyperlink ref="B167" r:id="rId91" xr:uid="{5E7F8175-AC81-41AB-ADEF-88D161BD79E8}"/>
     <hyperlink ref="B168" r:id="rId92" xr:uid="{EDDDEF76-B883-4EF9-9FC5-161840AF7158}"/>
     <hyperlink ref="B170" r:id="rId93" xr:uid="{D6DB063D-7107-4293-B0D7-61B730726576}"/>
-    <hyperlink ref="B171" r:id="rId94" xr:uid="{F585CD7B-9F4A-4119-B84A-294C0BD3D8FD}"/>
-    <hyperlink ref="E2" r:id="rId95" xr:uid="{B23BF91E-8E7D-41EA-8809-F5359A06A114}"/>
-    <hyperlink ref="E15" r:id="rId96" xr:uid="{54637D0C-DA8F-4E1D-AEEF-7AED8E6ED50B}"/>
-    <hyperlink ref="E20" r:id="rId97" xr:uid="{D486072A-91D3-447F-987C-9280F970A9CA}"/>
-    <hyperlink ref="E23" r:id="rId98" xr:uid="{2C079E54-40CA-457B-BADB-706D5E1E2A5E}"/>
-    <hyperlink ref="E60" r:id="rId99" xr:uid="{7D2B707D-8376-476A-89D9-3DF73C0C1B2F}"/>
-    <hyperlink ref="E61" r:id="rId100" xr:uid="{F104FBEC-DA37-476D-B8FE-2818B8CD528E}"/>
-    <hyperlink ref="E62" r:id="rId101" xr:uid="{A372DD7C-2444-4553-B21C-79B2055208FD}"/>
-    <hyperlink ref="E67" r:id="rId102" xr:uid="{A6D353BF-31C7-46C3-89A6-2A7293F2823F}"/>
-    <hyperlink ref="E68" r:id="rId103" xr:uid="{C0735291-92FC-4F1E-9E3E-DCD49A8F85DB}"/>
-    <hyperlink ref="E76" r:id="rId104" xr:uid="{AC9544B8-91FC-4B3A-B666-5350D1C99009}"/>
-    <hyperlink ref="E79" r:id="rId105" xr:uid="{A146629E-D3DE-4E8E-B528-5336A061D81A}"/>
-    <hyperlink ref="E82" r:id="rId106" xr:uid="{507FF33D-FCC5-45D4-89E2-EED73ECAA234}"/>
-    <hyperlink ref="E85" r:id="rId107" xr:uid="{57E4F533-8148-4BB4-AAAE-2F35DFB4D297}"/>
-    <hyperlink ref="E86" r:id="rId108" xr:uid="{22DB2FB5-1A91-461F-8A29-58DAB972D08B}"/>
-    <hyperlink ref="E90" r:id="rId109" xr:uid="{06008FF1-F5BC-44E9-84A3-227E64E4934F}"/>
-    <hyperlink ref="E91" r:id="rId110" xr:uid="{DAC634F0-8DF3-46AF-A46B-8AE65D3CC778}"/>
-    <hyperlink ref="E96" r:id="rId111" xr:uid="{B926E7D8-B7B0-4341-8A48-11360723CE11}"/>
-    <hyperlink ref="E97" r:id="rId112" xr:uid="{E8EB1733-7A7F-4C38-94AF-9F8EF187CC93}"/>
-    <hyperlink ref="E104" r:id="rId113" xr:uid="{7F1CA497-CB91-4F98-83F2-5CC7C906EC5F}"/>
-    <hyperlink ref="E105" r:id="rId114" xr:uid="{4FEBB464-094B-4149-8239-5C431BC4A6F8}"/>
-    <hyperlink ref="E115" r:id="rId115" xr:uid="{250282A6-B5DE-4D2A-A7A7-6A06B3D91807}"/>
-    <hyperlink ref="E117" r:id="rId116" xr:uid="{6508F7EE-82A1-4099-AFFE-AD59DCF05AD9}"/>
-    <hyperlink ref="E118" r:id="rId117" xr:uid="{D59077A8-A1C5-4747-B4FF-57CAC9E5F665}"/>
-    <hyperlink ref="E137" r:id="rId118" xr:uid="{C6462908-6543-4F53-8FBE-C3E2627F6792}"/>
-    <hyperlink ref="E138" r:id="rId119" xr:uid="{D61A1DA6-E4B5-4F2D-923C-3852D2199BE9}"/>
-    <hyperlink ref="E144" r:id="rId120" xr:uid="{2CF13EBD-E552-4604-A7A3-C1540342543B}"/>
-    <hyperlink ref="E145" r:id="rId121" xr:uid="{98C09445-5358-49FB-BF52-04000314191D}"/>
-    <hyperlink ref="E147" r:id="rId122" xr:uid="{AED4C117-28AD-49AA-91E0-7BCA3CA8D227}"/>
-    <hyperlink ref="E154" r:id="rId123" xr:uid="{058D9BB9-BFA8-4B03-84F2-A642F9E49019}"/>
-    <hyperlink ref="E159" r:id="rId124" xr:uid="{959A34B2-2D3D-47BE-B067-22475B244FAA}"/>
-    <hyperlink ref="E161" r:id="rId125" xr:uid="{F4A159E0-72EE-45F2-A4DE-0E4CE9E6FB02}"/>
-    <hyperlink ref="E167" r:id="rId126" xr:uid="{3736C139-F846-4F2A-8513-3670E806AFE8}"/>
-    <hyperlink ref="E168" r:id="rId127" xr:uid="{C411F542-D9C4-4970-9620-88B438DDA702}"/>
+    <hyperlink ref="E2" r:id="rId94" xr:uid="{B23BF91E-8E7D-41EA-8809-F5359A06A114}"/>
+    <hyperlink ref="E15" r:id="rId95" xr:uid="{54637D0C-DA8F-4E1D-AEEF-7AED8E6ED50B}"/>
+    <hyperlink ref="E20" r:id="rId96" xr:uid="{D486072A-91D3-447F-987C-9280F970A9CA}"/>
+    <hyperlink ref="E23" r:id="rId97" xr:uid="{2C079E54-40CA-457B-BADB-706D5E1E2A5E}"/>
+    <hyperlink ref="E60" r:id="rId98" xr:uid="{7D2B707D-8376-476A-89D9-3DF73C0C1B2F}"/>
+    <hyperlink ref="E61" r:id="rId99" xr:uid="{F104FBEC-DA37-476D-B8FE-2818B8CD528E}"/>
+    <hyperlink ref="E62" r:id="rId100" xr:uid="{A372DD7C-2444-4553-B21C-79B2055208FD}"/>
+    <hyperlink ref="E67" r:id="rId101" xr:uid="{A6D353BF-31C7-46C3-89A6-2A7293F2823F}"/>
+    <hyperlink ref="E68" r:id="rId102" xr:uid="{C0735291-92FC-4F1E-9E3E-DCD49A8F85DB}"/>
+    <hyperlink ref="E76" r:id="rId103" xr:uid="{AC9544B8-91FC-4B3A-B666-5350D1C99009}"/>
+    <hyperlink ref="E79" r:id="rId104" xr:uid="{A146629E-D3DE-4E8E-B528-5336A061D81A}"/>
+    <hyperlink ref="E82" r:id="rId105" xr:uid="{507FF33D-FCC5-45D4-89E2-EED73ECAA234}"/>
+    <hyperlink ref="E85" r:id="rId106" xr:uid="{57E4F533-8148-4BB4-AAAE-2F35DFB4D297}"/>
+    <hyperlink ref="E86" r:id="rId107" xr:uid="{22DB2FB5-1A91-461F-8A29-58DAB972D08B}"/>
+    <hyperlink ref="E90" r:id="rId108" xr:uid="{06008FF1-F5BC-44E9-84A3-227E64E4934F}"/>
+    <hyperlink ref="E91" r:id="rId109" xr:uid="{DAC634F0-8DF3-46AF-A46B-8AE65D3CC778}"/>
+    <hyperlink ref="E96" r:id="rId110" xr:uid="{B926E7D8-B7B0-4341-8A48-11360723CE11}"/>
+    <hyperlink ref="E97" r:id="rId111" xr:uid="{E8EB1733-7A7F-4C38-94AF-9F8EF187CC93}"/>
+    <hyperlink ref="E104" r:id="rId112" xr:uid="{7F1CA497-CB91-4F98-83F2-5CC7C906EC5F}"/>
+    <hyperlink ref="E105" r:id="rId113" xr:uid="{4FEBB464-094B-4149-8239-5C431BC4A6F8}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{250282A6-B5DE-4D2A-A7A7-6A06B3D91807}"/>
+    <hyperlink ref="E117" r:id="rId115" xr:uid="{6508F7EE-82A1-4099-AFFE-AD59DCF05AD9}"/>
+    <hyperlink ref="E118" r:id="rId116" xr:uid="{D59077A8-A1C5-4747-B4FF-57CAC9E5F665}"/>
+    <hyperlink ref="E137" r:id="rId117" xr:uid="{C6462908-6543-4F53-8FBE-C3E2627F6792}"/>
+    <hyperlink ref="E138" r:id="rId118" xr:uid="{D61A1DA6-E4B5-4F2D-923C-3852D2199BE9}"/>
+    <hyperlink ref="E144" r:id="rId119" xr:uid="{2CF13EBD-E552-4604-A7A3-C1540342543B}"/>
+    <hyperlink ref="E145" r:id="rId120" xr:uid="{98C09445-5358-49FB-BF52-04000314191D}"/>
+    <hyperlink ref="E147" r:id="rId121" xr:uid="{AED4C117-28AD-49AA-91E0-7BCA3CA8D227}"/>
+    <hyperlink ref="E154" r:id="rId122" xr:uid="{058D9BB9-BFA8-4B03-84F2-A642F9E49019}"/>
+    <hyperlink ref="E159" r:id="rId123" xr:uid="{959A34B2-2D3D-47BE-B067-22475B244FAA}"/>
+    <hyperlink ref="E161" r:id="rId124" xr:uid="{F4A159E0-72EE-45F2-A4DE-0E4CE9E6FB02}"/>
+    <hyperlink ref="E167" r:id="rId125" xr:uid="{3736C139-F846-4F2A-8513-3670E806AFE8}"/>
+    <hyperlink ref="E168" r:id="rId126" xr:uid="{C411F542-D9C4-4970-9620-88B438DDA702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId128"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId127"/>
 </worksheet>
 </file>
 
@@ -13247,7 +13202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A394" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
